--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2786088738440498</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5082224882602588</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.022087809401185</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.279568129133281</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005804032963893852</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.94701255282118</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0.2416040875791339</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.3850176937815775</v>
+      </c>
+      <c r="E3">
+        <v>1.60628790189314</v>
+      </c>
+      <c r="F3">
+        <v>7.311759321891202</v>
+      </c>
+      <c r="G3">
+        <v>0.0006191991111361335</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>11.51714720279892</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0.2194962017993021</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.3243465939154646</v>
+      </c>
+      <c r="E4">
+        <v>1.390471023406818</v>
+      </c>
+      <c r="F4">
+        <v>6.302761718726401</v>
+      </c>
+      <c r="G4">
+        <v>0.0006411294208396152</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.18006792061581</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0.2106034422562431</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.3021063369705672</v>
+      </c>
+      <c r="E5">
+        <v>1.308943772904385</v>
+      </c>
+      <c r="F5">
+        <v>5.925007530577062</v>
+      </c>
+      <c r="G5">
+        <v>0.0006497874374528037</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>9.660955664988279</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0.2091330007344396</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2985378017295091</v>
+      </c>
+      <c r="E6">
+        <v>1.295724706074921</v>
+      </c>
+      <c r="F6">
+        <v>5.863964455161891</v>
+      </c>
+      <c r="G6">
+        <v>0.0006512122163756002</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>9.57604601425092</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0.219375838852315</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.3240378127047592</v>
+      </c>
+      <c r="E7">
+        <v>1.389348820669667</v>
+      </c>
+      <c r="F7">
+        <v>6.297547814850702</v>
+      </c>
+      <c r="G7">
+        <v>0.0006412471266717028</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>10.17297536915564</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0.2656934785819658</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.4615818049868494</v>
+      </c>
+      <c r="E8">
+        <v>1.867627325879326</v>
+      </c>
+      <c r="F8">
+        <v>8.546132087643002</v>
+      </c>
+      <c r="G8">
+        <v>0.0005943325637125518</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>13.06636689046346</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E9">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F9">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G9">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E10">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F10">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G10">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E11">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F11">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G11">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E12">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F12">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G12">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E13">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F13">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G13">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E14">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F14">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G14">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E15">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F15">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G15">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E16">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F16">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G16">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E17">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F17">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G17">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E18">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F18">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G18">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E19">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F19">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G19">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E20">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F20">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G20">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E21">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F21">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G21">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E22">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F22">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G22">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E23">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F23">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G23">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E24">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F24">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G24">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.3662392297862596</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.071608782824939</v>
+      </c>
+      <c r="E25">
+        <v>3.752538645626004</v>
+      </c>
+      <c r="F25">
+        <v>17.32632445371286</v>
+      </c>
+      <c r="G25">
+        <v>0.0004543250087543917</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>22.13008143157509</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2786088738440498</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5082224882602588</v>
+        <v>0.005298165396490973</v>
       </c>
       <c r="E2">
-        <v>2.022087809401185</v>
+        <v>1.524931150896052</v>
       </c>
       <c r="F2">
-        <v>9.279568129133281</v>
+        <v>0.9968661724061576</v>
       </c>
       <c r="G2">
-        <v>0.0005804032963893852</v>
+        <v>0.9869680518151682</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4790111096858567</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.94701255282118</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.050645075630655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2416040875791339</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3850176937815775</v>
+        <v>0.004652449415786464</v>
       </c>
       <c r="E3">
-        <v>1.60628790189314</v>
+        <v>1.306053004890472</v>
       </c>
       <c r="F3">
-        <v>7.311759321891202</v>
+        <v>0.8628529833462437</v>
       </c>
       <c r="G3">
-        <v>0.0006191991111361335</v>
+        <v>0.8508712951368409</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4201828794665801</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.51714720279892</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.638560695354784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2194962017993021</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3243465939154646</v>
+        <v>0.004260646586255135</v>
       </c>
       <c r="E4">
-        <v>1.390471023406818</v>
+        <v>1.174656493552419</v>
       </c>
       <c r="F4">
-        <v>6.302761718726401</v>
+        <v>0.7818870751447378</v>
       </c>
       <c r="G4">
-        <v>0.0006411294208396152</v>
+        <v>0.7685931899414129</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3847939684976325</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.18006792061581</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.389784592458739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2106034422562431</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3021063369705672</v>
+        <v>0.004101975997039986</v>
       </c>
       <c r="E5">
-        <v>1.308943772904385</v>
+        <v>1.121746707635708</v>
       </c>
       <c r="F5">
-        <v>5.925007530577062</v>
+        <v>0.7491814915978097</v>
       </c>
       <c r="G5">
-        <v>0.0006497874374528037</v>
+        <v>0.73534193410147</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3705360649488085</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.660955664988279</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.289333870716746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2091330007344396</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2985378017295091</v>
+        <v>0.004075683971789701</v>
       </c>
       <c r="E6">
-        <v>1.295724706074921</v>
+        <v>1.112996220327403</v>
       </c>
       <c r="F6">
-        <v>5.863964455161891</v>
+        <v>0.7437669979451584</v>
       </c>
       <c r="G6">
-        <v>0.0006512122163756002</v>
+        <v>0.7298360984162571</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3681778445340456</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.57604601425092</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.272706244722883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.219375838852315</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3240378127047592</v>
+        <v>0.004258502903116579</v>
       </c>
       <c r="E7">
-        <v>1.389348820669667</v>
+        <v>1.173940508682506</v>
       </c>
       <c r="F7">
-        <v>6.297547814850702</v>
+        <v>0.78144488166744</v>
       </c>
       <c r="G7">
-        <v>0.0006412471266717028</v>
+        <v>0.7681436849631638</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3846010460906371</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.17297536915564</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.388426300191014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2656934785819658</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4615818049868494</v>
+        <v>0.005074435093982643</v>
       </c>
       <c r="E8">
-        <v>1.867627325879326</v>
+        <v>1.44876550594509</v>
       </c>
       <c r="F8">
-        <v>8.546132087643002</v>
+        <v>0.9503577801120855</v>
       </c>
       <c r="G8">
-        <v>0.0005943325637125518</v>
+        <v>0.9397463654442362</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4585622545726551</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.06636689046346</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.907589319884863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.071608782824939</v>
+        <v>0.006721431169316006</v>
       </c>
       <c r="E9">
-        <v>3.752538645626004</v>
+        <v>2.017483874186311</v>
       </c>
       <c r="F9">
-        <v>17.32632445371286</v>
+        <v>1.294198833933336</v>
       </c>
       <c r="G9">
-        <v>0.0004543250087543917</v>
+        <v>1.288739143502369</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6104393485628066</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.966343654729485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.071608782824939</v>
+        <v>0.007977092752810222</v>
       </c>
       <c r="E10">
-        <v>3.752538645626004</v>
+        <v>2.463144888214842</v>
       </c>
       <c r="F10">
-        <v>17.32632445371286</v>
+        <v>1.557834171831686</v>
       </c>
       <c r="G10">
-        <v>0.0004543250087543917</v>
+        <v>1.55630878580854</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7278046150333353</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.779924602685014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.071608782824939</v>
+        <v>0.008563135149515233</v>
       </c>
       <c r="E11">
-        <v>3.752538645626004</v>
+        <v>2.674521596467955</v>
       </c>
       <c r="F11">
-        <v>17.32632445371286</v>
+        <v>1.681013446550409</v>
       </c>
       <c r="G11">
-        <v>0.0004543250087543917</v>
+        <v>1.681371632577594</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7828666219905926</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.160604547285061</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.071608782824939</v>
+        <v>0.008787704166895338</v>
       </c>
       <c r="E12">
-        <v>3.752538645626004</v>
+        <v>2.756066497554158</v>
       </c>
       <c r="F12">
-        <v>17.32632445371286</v>
+        <v>1.728207105980999</v>
       </c>
       <c r="G12">
-        <v>0.0004543250087543917</v>
+        <v>1.729298286119615</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.803997330441689</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.30654847338036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.071608782824939</v>
+        <v>0.008739212105059124</v>
       </c>
       <c r="E13">
-        <v>3.752538645626004</v>
+        <v>2.738433005009739</v>
       </c>
       <c r="F13">
-        <v>17.32632445371286</v>
+        <v>1.718017316158267</v>
       </c>
       <c r="G13">
-        <v>0.0004543250087543917</v>
+        <v>1.718949644460338</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7994333189917029</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.275032637844561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.071608782824939</v>
+        <v>0.00858155418607609</v>
       </c>
       <c r="E14">
-        <v>3.752538645626004</v>
+        <v>2.681198627114981</v>
       </c>
       <c r="F14">
-        <v>17.32632445371286</v>
+        <v>1.684884606224941</v>
       </c>
       <c r="G14">
-        <v>0.0004543250087543917</v>
+        <v>1.685302661151837</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7845992030045181</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.172573933209151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.071608782824939</v>
+        <v>0.008485346035502772</v>
       </c>
       <c r="E15">
-        <v>3.752538645626004</v>
+        <v>2.646344802390672</v>
       </c>
       <c r="F15">
-        <v>17.32632445371286</v>
+        <v>1.664663857490439</v>
       </c>
       <c r="G15">
-        <v>0.0004543250087543917</v>
+        <v>1.66476967768358</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7755505943766252</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5.110056509087201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.071608782824939</v>
+        <v>0.007939133608157789</v>
       </c>
       <c r="E16">
-        <v>3.752538645626004</v>
+        <v>2.449525978174478</v>
       </c>
       <c r="F16">
-        <v>17.32632445371286</v>
+        <v>1.5498562064693</v>
       </c>
       <c r="G16">
-        <v>0.0004543250087543917</v>
+        <v>1.548210121441343</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7242430871727095</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.755281211551505</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.071608782824939</v>
+        <v>0.007608183454873796</v>
       </c>
       <c r="E17">
-        <v>3.752538645626004</v>
+        <v>2.331168706861192</v>
       </c>
       <c r="F17">
-        <v>17.32632445371286</v>
+        <v>1.480312321517175</v>
       </c>
       <c r="G17">
-        <v>0.0004543250087543917</v>
+        <v>1.477619640781541</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6932223413564884</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.540526966263201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.071608782824939</v>
+        <v>0.007419189712429386</v>
       </c>
       <c r="E18">
-        <v>3.752538645626004</v>
+        <v>2.263888576377553</v>
       </c>
       <c r="F18">
-        <v>17.32632445371286</v>
+        <v>1.440613032443892</v>
       </c>
       <c r="G18">
-        <v>0.0004543250087543917</v>
+        <v>1.437326779334853</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6755347551191448</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.417983711144132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.071608782824939</v>
+        <v>0.007355419271018349</v>
       </c>
       <c r="E19">
-        <v>3.752538645626004</v>
+        <v>2.241238163662501</v>
       </c>
       <c r="F19">
-        <v>17.32632445371286</v>
+        <v>1.427220847244627</v>
       </c>
       <c r="G19">
-        <v>0.0004543250087543917</v>
+        <v>1.423734890859834</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.66957149556535</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.376652997491249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.071608782824939</v>
+        <v>0.007643269514002071</v>
       </c>
       <c r="E20">
-        <v>3.752538645626004</v>
+        <v>2.343683935536845</v>
       </c>
       <c r="F20">
-        <v>17.32632445371286</v>
+        <v>1.487683730996764</v>
       </c>
       <c r="G20">
-        <v>0.0004543250087543917</v>
+        <v>1.485101550843126</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6965082693320426</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.563284905654655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.071608782824939</v>
+        <v>0.008627785649519382</v>
       </c>
       <c r="E21">
-        <v>3.752538645626004</v>
+        <v>2.697966739097083</v>
       </c>
       <c r="F21">
-        <v>17.32632445371286</v>
+        <v>1.694600906553859</v>
       </c>
       <c r="G21">
-        <v>0.0004543250087543917</v>
+        <v>1.695169425529855</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7889484044630137</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.202617682842174</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.071608782824939</v>
+        <v>0.009286977287185749</v>
       </c>
       <c r="E22">
-        <v>3.752538645626004</v>
+        <v>2.93841341156454</v>
       </c>
       <c r="F22">
-        <v>17.32632445371286</v>
+        <v>1.833074960871926</v>
       </c>
       <c r="G22">
-        <v>0.0004543250087543917</v>
+        <v>1.835821354730712</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8510172862341676</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.631035743392658</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.071608782824939</v>
+        <v>0.008933513373289514</v>
       </c>
       <c r="E23">
-        <v>3.752538645626004</v>
+        <v>2.809170915509952</v>
       </c>
       <c r="F23">
-        <v>17.32632445371286</v>
+        <v>1.75884252607699</v>
       </c>
       <c r="G23">
-        <v>0.0004543250087543917</v>
+        <v>1.760413326892973</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8177241488519371</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.401315056717635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.071608782824939</v>
+        <v>0.007627403175934688</v>
       </c>
       <c r="E24">
-        <v>3.752538645626004</v>
+        <v>2.338023436638267</v>
       </c>
       <c r="F24">
-        <v>17.32632445371286</v>
+        <v>1.484350243086752</v>
       </c>
       <c r="G24">
-        <v>0.0004543250087543917</v>
+        <v>1.481718080754234</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6950222474172563</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.552993189744996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3662392297862596</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.071608782824939</v>
+        <v>0.006269286364911864</v>
       </c>
       <c r="E25">
-        <v>3.752538645626004</v>
+        <v>1.859524139094262</v>
       </c>
       <c r="F25">
-        <v>17.32632445371286</v>
+        <v>1.199509197689281</v>
       </c>
       <c r="G25">
-        <v>0.0004543250087543917</v>
+        <v>1.192647888632962</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5684647483349181</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.13008143157509</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.674513817175978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005298165396490973</v>
+        <v>0.003282768059786889</v>
       </c>
       <c r="E2">
-        <v>1.524931150896052</v>
+        <v>0.4354855266416848</v>
       </c>
       <c r="F2">
-        <v>0.9968661724061576</v>
+        <v>0.4268455756567278</v>
       </c>
       <c r="G2">
-        <v>0.9869680518151682</v>
+        <v>0.3367752227115943</v>
       </c>
       <c r="H2">
-        <v>0.4790111096858567</v>
+        <v>0.3434920082864039</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.050645075630655</v>
+        <v>1.288635611322178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004652449415786464</v>
+        <v>0.00311798581107503</v>
       </c>
       <c r="E3">
-        <v>1.306053004890472</v>
+        <v>0.3796236440277312</v>
       </c>
       <c r="F3">
-        <v>0.8628529833462437</v>
+        <v>0.3933003553665202</v>
       </c>
       <c r="G3">
-        <v>0.8508712951368409</v>
+        <v>0.301200860300014</v>
       </c>
       <c r="H3">
-        <v>0.4201828794665801</v>
+        <v>0.3306581927846537</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.638560695354784</v>
+        <v>1.186000399322808</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004260646586255135</v>
+        <v>0.00301825549965784</v>
       </c>
       <c r="E4">
-        <v>1.174656493552419</v>
+        <v>0.3454298728940586</v>
       </c>
       <c r="F4">
-        <v>0.7818870751447378</v>
+        <v>0.3729420886923549</v>
       </c>
       <c r="G4">
-        <v>0.7685931899414129</v>
+        <v>0.2794993337179221</v>
       </c>
       <c r="H4">
-        <v>0.3847939684976325</v>
+        <v>0.3229880749787242</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.389784592458739</v>
+        <v>1.12370741712374</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101975997039986</v>
+        <v>0.002977983059397005</v>
       </c>
       <c r="E5">
-        <v>1.121746707635708</v>
+        <v>0.3315199486717972</v>
       </c>
       <c r="F5">
-        <v>0.7491814915978097</v>
+        <v>0.3647054950681934</v>
       </c>
       <c r="G5">
-        <v>0.73534193410147</v>
+        <v>0.2706907303260806</v>
       </c>
       <c r="H5">
-        <v>0.3705360649488085</v>
+        <v>0.3199150623406126</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.289333870716746</v>
+        <v>1.098503372128306</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,19 +615,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004075683971789701</v>
+        <v>0.00297131824670771</v>
       </c>
       <c r="E6">
-        <v>1.112996220327403</v>
+        <v>0.3292116194363075</v>
       </c>
       <c r="F6">
-        <v>0.7437669979451584</v>
+        <v>0.3633413997772692</v>
       </c>
       <c r="G6">
-        <v>0.7298360984162571</v>
+        <v>0.2692301621707429</v>
       </c>
       <c r="H6">
-        <v>0.3681778445340456</v>
+        <v>0.3194079646665671</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.272706244722883</v>
+        <v>1.094329137056604</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004258502903116579</v>
+        <v>0.003017710873157498</v>
       </c>
       <c r="E7">
-        <v>1.173940508682506</v>
+        <v>0.3452421832879935</v>
       </c>
       <c r="F7">
-        <v>0.78144488166744</v>
+        <v>0.3728307665163584</v>
       </c>
       <c r="G7">
-        <v>0.7681436849631638</v>
+        <v>0.2793803970866549</v>
       </c>
       <c r="H7">
-        <v>0.3846010460906371</v>
+        <v>0.3229464183999653</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.388426300191014</v>
+        <v>1.123366776377708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005074435093982643</v>
+        <v>0.00322565360309568</v>
       </c>
       <c r="E8">
-        <v>1.44876550594509</v>
+        <v>0.4162010468717909</v>
       </c>
       <c r="F8">
-        <v>0.9503577801120855</v>
+        <v>0.4152293778962388</v>
       </c>
       <c r="G8">
-        <v>0.9397463654442362</v>
+        <v>0.3244794999736769</v>
       </c>
       <c r="H8">
-        <v>0.4585622545726551</v>
+        <v>0.3390232442816625</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.907589319884863</v>
+        <v>1.253095441307863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006721431169316006</v>
+        <v>0.003644731221282171</v>
       </c>
       <c r="E9">
-        <v>2.017483874186311</v>
+        <v>0.5562976445451824</v>
       </c>
       <c r="F9">
-        <v>1.294198833933336</v>
+        <v>0.500290933977297</v>
       </c>
       <c r="G9">
-        <v>1.288739143502369</v>
+        <v>0.4140703990656505</v>
       </c>
       <c r="H9">
-        <v>0.6104393485628066</v>
+        <v>0.3722245405283218</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.966343654729485</v>
+        <v>1.513334097580127</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007977092752810222</v>
+        <v>0.003959326332179103</v>
       </c>
       <c r="E10">
-        <v>2.463144888214842</v>
+        <v>0.6599630079396235</v>
       </c>
       <c r="F10">
-        <v>1.557834171831686</v>
+        <v>0.5639956345127786</v>
       </c>
       <c r="G10">
-        <v>1.55630878580854</v>
+        <v>0.4806440831151235</v>
       </c>
       <c r="H10">
-        <v>0.7278046150333353</v>
+        <v>0.3976543754028228</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.779924602685014</v>
+        <v>1.708230485774493</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008563135149515233</v>
+        <v>0.004103863068738889</v>
       </c>
       <c r="E11">
-        <v>2.674521596467955</v>
+        <v>0.7073182102085269</v>
       </c>
       <c r="F11">
-        <v>1.681013446550409</v>
+        <v>0.593248511635764</v>
       </c>
       <c r="G11">
-        <v>1.681371632577594</v>
+        <v>0.5111043360736858</v>
       </c>
       <c r="H11">
-        <v>0.7828666219905926</v>
+        <v>0.4094518639923592</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.160604547285061</v>
+        <v>1.797728296575144</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008787704166895338</v>
+        <v>0.004158796916037488</v>
       </c>
       <c r="E12">
-        <v>2.756066497554158</v>
+        <v>0.7252814645633947</v>
       </c>
       <c r="F12">
-        <v>1.728207105980999</v>
+        <v>0.604365721277091</v>
       </c>
       <c r="G12">
-        <v>1.729298286119615</v>
+        <v>0.5226648403902345</v>
       </c>
       <c r="H12">
-        <v>0.803997330441689</v>
+        <v>0.4139524800982883</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.30654847338036</v>
+        <v>1.831741466706035</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008739212105059124</v>
+        <v>0.0041469570567223</v>
       </c>
       <c r="E13">
-        <v>2.738433005009739</v>
+        <v>0.721411343475495</v>
       </c>
       <c r="F13">
-        <v>1.718017316158267</v>
+        <v>0.6019696543234261</v>
       </c>
       <c r="G13">
-        <v>1.718949644460338</v>
+        <v>0.5201739184789744</v>
       </c>
       <c r="H13">
-        <v>0.7994333189917029</v>
+        <v>0.4129817139520924</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.275032637844561</v>
+        <v>1.824410655378472</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.00858155418607609</v>
+        <v>0.004108378505367938</v>
       </c>
       <c r="E14">
-        <v>2.681198627114981</v>
+        <v>0.7087954249357438</v>
       </c>
       <c r="F14">
-        <v>1.684884606224941</v>
+        <v>0.5941623311389179</v>
       </c>
       <c r="G14">
-        <v>1.685302661151837</v>
+        <v>0.5120549037029605</v>
       </c>
       <c r="H14">
-        <v>0.7845992030045181</v>
+        <v>0.409821466670877</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.172573933209151</v>
+        <v>1.800524119720649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008485346035502772</v>
+        <v>0.00408477407517438</v>
       </c>
       <c r="E15">
-        <v>2.646344802390672</v>
+        <v>0.7010719049055893</v>
       </c>
       <c r="F15">
-        <v>1.664663857490439</v>
+        <v>0.5893853151532795</v>
       </c>
       <c r="G15">
-        <v>1.66476967768358</v>
+        <v>0.5070851600557091</v>
       </c>
       <c r="H15">
-        <v>0.7755505943766252</v>
+        <v>0.4078900483661414</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.110056509087201</v>
+        <v>1.785908904299276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007939133608157789</v>
+        <v>0.003949908852849404</v>
       </c>
       <c r="E16">
-        <v>2.449525978174478</v>
+        <v>0.6568724169760856</v>
       </c>
       <c r="F16">
-        <v>1.5498562064693</v>
+        <v>0.5620894304974513</v>
       </c>
       <c r="G16">
-        <v>1.548210121441343</v>
+        <v>0.4786570196495461</v>
       </c>
       <c r="H16">
-        <v>0.7242430871727095</v>
+        <v>0.3968880122874339</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.755281211551505</v>
+        <v>1.702398612130537</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007608183454873796</v>
+        <v>0.003867535620493356</v>
       </c>
       <c r="E17">
-        <v>2.331168706861192</v>
+        <v>0.629809763319642</v>
       </c>
       <c r="F17">
-        <v>1.480312321517175</v>
+        <v>0.5454146261147201</v>
       </c>
       <c r="G17">
-        <v>1.477619640781541</v>
+        <v>0.4612626808594769</v>
       </c>
       <c r="H17">
-        <v>0.6932223413564884</v>
+        <v>0.3901974874650023</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.540526966263201</v>
+        <v>1.651383722660228</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007419189712429386</v>
+        <v>0.003820291157719424</v>
       </c>
       <c r="E18">
-        <v>2.263888576377553</v>
+        <v>0.6142624613427188</v>
       </c>
       <c r="F18">
-        <v>1.440613032443892</v>
+        <v>0.5358494138643692</v>
       </c>
       <c r="G18">
-        <v>1.437326779334853</v>
+        <v>0.4512744032265061</v>
       </c>
       <c r="H18">
-        <v>0.6755347551191448</v>
+        <v>0.3863708487733675</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.417983711144132</v>
+        <v>1.622120123892671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007355419271018349</v>
+        <v>0.003804318213450841</v>
       </c>
       <c r="E19">
-        <v>2.241238163662501</v>
+        <v>0.6090015003014315</v>
       </c>
       <c r="F19">
-        <v>1.427220847244627</v>
+        <v>0.5326151957723084</v>
       </c>
       <c r="G19">
-        <v>1.423734890859834</v>
+        <v>0.4478953566152484</v>
       </c>
       <c r="H19">
-        <v>0.66957149556535</v>
+        <v>0.3850789144428859</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.376652997491249</v>
+        <v>1.612225456820568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007643269514002071</v>
+        <v>0.003876290507584201</v>
       </c>
       <c r="E20">
-        <v>2.343683935536845</v>
+        <v>0.6326887045236305</v>
       </c>
       <c r="F20">
-        <v>1.487683730996764</v>
+        <v>0.5471870247896504</v>
       </c>
       <c r="G20">
-        <v>1.485101550843126</v>
+        <v>0.4631126271813173</v>
       </c>
       <c r="H20">
-        <v>0.6965082693320426</v>
+        <v>0.3909074710753089</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.563284905654655</v>
+        <v>1.656806175146869</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008627785649519382</v>
+        <v>0.004119704539757407</v>
       </c>
       <c r="E21">
-        <v>2.697966739097083</v>
+        <v>0.7125001682737064</v>
       </c>
       <c r="F21">
-        <v>1.694600906553859</v>
+        <v>0.5964544477322562</v>
       </c>
       <c r="G21">
-        <v>1.695169425529855</v>
+        <v>0.5144389481118878</v>
       </c>
       <c r="H21">
-        <v>0.7889484044630137</v>
+        <v>0.4107488063637277</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.202617682842174</v>
+        <v>1.807536841490787</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009286977287185749</v>
+        <v>0.004279959021001645</v>
       </c>
       <c r="E22">
-        <v>2.93841341156454</v>
+        <v>0.764842669832106</v>
       </c>
       <c r="F22">
-        <v>1.833074960871926</v>
+        <v>0.6288856518110322</v>
       </c>
       <c r="G22">
-        <v>1.835821354730712</v>
+        <v>0.5481347357245454</v>
       </c>
       <c r="H22">
-        <v>0.8510172862341676</v>
+        <v>0.423909655295347</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.631035743392658</v>
+        <v>1.906761666784746</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008933513373289514</v>
+        <v>0.00419432250913232</v>
       </c>
       <c r="E23">
-        <v>2.809170915509952</v>
+        <v>0.7368890890761435</v>
       </c>
       <c r="F23">
-        <v>1.75884252607699</v>
+        <v>0.6115551107154289</v>
       </c>
       <c r="G23">
-        <v>1.760413326892973</v>
+        <v>0.5301366292088687</v>
       </c>
       <c r="H23">
-        <v>0.8177241488519371</v>
+        <v>0.4168677050772089</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.401315056717635</v>
+        <v>1.85373763995716</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007627403175934688</v>
+        <v>0.003872332070940843</v>
       </c>
       <c r="E24">
-        <v>2.338023436638267</v>
+        <v>0.6313870999755409</v>
       </c>
       <c r="F24">
-        <v>1.484350243086752</v>
+        <v>0.5463856568671019</v>
       </c>
       <c r="G24">
-        <v>1.481718080754234</v>
+        <v>0.4622762292457878</v>
       </c>
       <c r="H24">
-        <v>0.6950222474172563</v>
+        <v>0.3905864257188227</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.552993189744996</v>
+        <v>1.654354480355266</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006269286364911864</v>
+        <v>0.003530170004236055</v>
       </c>
       <c r="E25">
-        <v>1.859524139094262</v>
+        <v>0.5182800985497948</v>
       </c>
       <c r="F25">
-        <v>1.199509197689281</v>
+        <v>0.477070003046336</v>
       </c>
       <c r="G25">
-        <v>1.192647888632962</v>
+        <v>0.3897053291207442</v>
       </c>
       <c r="H25">
-        <v>0.5684647483349181</v>
+        <v>0.3630617902832967</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.674513817175978</v>
+        <v>1.442293097308493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003282768059786889</v>
+        <v>0.005298165396427024</v>
       </c>
       <c r="E2">
-        <v>0.4354855266416848</v>
+        <v>1.52493115089608</v>
       </c>
       <c r="F2">
-        <v>0.4268455756567278</v>
+        <v>0.9968661724061576</v>
       </c>
       <c r="G2">
-        <v>0.3367752227115943</v>
+        <v>0.9869680518151256</v>
       </c>
       <c r="H2">
-        <v>0.3434920082864039</v>
+        <v>0.4790111096858709</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.288635611322178</v>
+        <v>3.050645075630655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.00311798581107503</v>
+        <v>0.004652449415834425</v>
       </c>
       <c r="E3">
-        <v>0.3796236440277312</v>
+        <v>1.306053004890472</v>
       </c>
       <c r="F3">
-        <v>0.3933003553665202</v>
+        <v>0.8628529833462437</v>
       </c>
       <c r="G3">
-        <v>0.301200860300014</v>
+        <v>0.8508712951368835</v>
       </c>
       <c r="H3">
-        <v>0.3306581927846537</v>
+        <v>0.4201828794666795</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.186000399322808</v>
+        <v>2.638560695354812</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00301825549965784</v>
+        <v>0.004260646586253358</v>
       </c>
       <c r="E4">
-        <v>0.3454298728940586</v>
+        <v>1.174656493552405</v>
       </c>
       <c r="F4">
-        <v>0.3729420886923549</v>
+        <v>0.781887075144752</v>
       </c>
       <c r="G4">
-        <v>0.2794993337179221</v>
+        <v>0.7685931899414129</v>
       </c>
       <c r="H4">
-        <v>0.3229880749787242</v>
+        <v>0.3847939684976325</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.12370741712374</v>
+        <v>2.389784592458739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002977983059397005</v>
+        <v>0.004101975997041762</v>
       </c>
       <c r="E5">
-        <v>0.3315199486717972</v>
+        <v>1.121746707635722</v>
       </c>
       <c r="F5">
-        <v>0.3647054950681934</v>
+        <v>0.7491814915978097</v>
       </c>
       <c r="G5">
-        <v>0.2706907303260806</v>
+        <v>0.7353419341014416</v>
       </c>
       <c r="H5">
-        <v>0.3199150623406126</v>
+        <v>0.3705360649489222</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.098503372128306</v>
+        <v>2.289333870716746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,19 +615,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00297131824670771</v>
+        <v>0.00407568397167779</v>
       </c>
       <c r="E6">
-        <v>0.3292116194363075</v>
+        <v>1.112996220327418</v>
       </c>
       <c r="F6">
-        <v>0.3633413997772692</v>
+        <v>0.7437669979451584</v>
       </c>
       <c r="G6">
-        <v>0.2692301621707429</v>
+        <v>0.7298360984162287</v>
       </c>
       <c r="H6">
-        <v>0.3194079646665671</v>
+        <v>0.3681778445339177</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.094329137056604</v>
+        <v>2.272706244722912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003017710873157498</v>
+        <v>0.004258502903166317</v>
       </c>
       <c r="E7">
-        <v>0.3452421832879935</v>
+        <v>1.17394050868252</v>
       </c>
       <c r="F7">
-        <v>0.3728307665163584</v>
+        <v>0.78144488166744</v>
       </c>
       <c r="G7">
-        <v>0.2793803970866549</v>
+        <v>0.7681436849631638</v>
       </c>
       <c r="H7">
-        <v>0.3229464183999653</v>
+        <v>0.3846010460907223</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.123366776377708</v>
+        <v>2.388426300191014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00322565360309568</v>
+        <v>0.005074435093822771</v>
       </c>
       <c r="E8">
-        <v>0.4162010468717909</v>
+        <v>1.448765505945104</v>
       </c>
       <c r="F8">
-        <v>0.4152293778962388</v>
+        <v>0.9503577801120855</v>
       </c>
       <c r="G8">
-        <v>0.3244794999736769</v>
+        <v>0.939746365444222</v>
       </c>
       <c r="H8">
-        <v>0.3390232442816625</v>
+        <v>0.4585622545726693</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.253095441307863</v>
+        <v>2.907589319884806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003644731221282171</v>
+        <v>0.006721431169427916</v>
       </c>
       <c r="E9">
-        <v>0.5562976445451824</v>
+        <v>2.017483874186297</v>
       </c>
       <c r="F9">
-        <v>0.500290933977297</v>
+        <v>1.294198833933351</v>
       </c>
       <c r="G9">
-        <v>0.4140703990656505</v>
+        <v>1.288739143502397</v>
       </c>
       <c r="H9">
-        <v>0.3722245405283218</v>
+        <v>0.6104393485628066</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.513334097580127</v>
+        <v>3.966343654729485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.003959326332179103</v>
+        <v>0.007977092752696535</v>
       </c>
       <c r="E10">
-        <v>0.6599630079396235</v>
+        <v>2.463144888214842</v>
       </c>
       <c r="F10">
-        <v>0.5639956345127786</v>
+        <v>1.557834171831686</v>
       </c>
       <c r="G10">
-        <v>0.4806440831151235</v>
+        <v>1.556308785808426</v>
       </c>
       <c r="H10">
-        <v>0.3976543754028228</v>
+        <v>0.7278046150333637</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.708230485774493</v>
+        <v>4.779924602685014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004103863068738889</v>
+        <v>0.008563135149518786</v>
       </c>
       <c r="E11">
-        <v>0.7073182102085269</v>
+        <v>2.67452159646794</v>
       </c>
       <c r="F11">
-        <v>0.593248511635764</v>
+        <v>1.681013446550395</v>
       </c>
       <c r="G11">
-        <v>0.5111043360736858</v>
+        <v>1.681371632577509</v>
       </c>
       <c r="H11">
-        <v>0.4094518639923592</v>
+        <v>0.7828666219905926</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.797728296575144</v>
+        <v>5.160604547285061</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004158796916037488</v>
+        <v>0.00878770416700192</v>
       </c>
       <c r="E12">
-        <v>0.7252814645633947</v>
+        <v>2.756066497554158</v>
       </c>
       <c r="F12">
-        <v>0.604365721277091</v>
+        <v>1.728207105980999</v>
       </c>
       <c r="G12">
-        <v>0.5226648403902345</v>
+        <v>1.729298286119644</v>
       </c>
       <c r="H12">
-        <v>0.4139524800982883</v>
+        <v>0.8039973304418311</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.831741466706035</v>
+        <v>5.30654847338036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0041469570567223</v>
+        <v>0.00873921210494899</v>
       </c>
       <c r="E13">
-        <v>0.721411343475495</v>
+        <v>2.738433005009725</v>
       </c>
       <c r="F13">
-        <v>0.6019696543234261</v>
+        <v>1.718017316158253</v>
       </c>
       <c r="G13">
-        <v>0.5201739184789744</v>
+        <v>1.718949644460366</v>
       </c>
       <c r="H13">
-        <v>0.4129817139520924</v>
+        <v>0.7994333189917029</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.824410655378472</v>
+        <v>5.275032637844561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004108378505367938</v>
+        <v>0.008581554186182672</v>
       </c>
       <c r="E14">
-        <v>0.7087954249357438</v>
+        <v>2.681198627115009</v>
       </c>
       <c r="F14">
-        <v>0.5941623311389179</v>
+        <v>1.684884606224955</v>
       </c>
       <c r="G14">
-        <v>0.5120549037029605</v>
+        <v>1.685302661151837</v>
       </c>
       <c r="H14">
-        <v>0.409821466670877</v>
+        <v>0.7845992030045181</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.800524119720649</v>
+        <v>5.172573933209151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00408477407517438</v>
+        <v>0.008485346035502772</v>
       </c>
       <c r="E15">
-        <v>0.7010719049055893</v>
+        <v>2.646344802390672</v>
       </c>
       <c r="F15">
-        <v>0.5893853151532795</v>
+        <v>1.664663857490439</v>
       </c>
       <c r="G15">
-        <v>0.5070851600557091</v>
+        <v>1.664769677683552</v>
       </c>
       <c r="H15">
-        <v>0.4078900483661414</v>
+        <v>0.7755505943766252</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.785908904299276</v>
+        <v>5.110056509087201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.003949908852849404</v>
+        <v>0.007939133608157789</v>
       </c>
       <c r="E16">
-        <v>0.6568724169760856</v>
+        <v>2.449525978174464</v>
       </c>
       <c r="F16">
-        <v>0.5620894304974513</v>
+        <v>1.5498562064693</v>
       </c>
       <c r="G16">
-        <v>0.4786570196495461</v>
+        <v>1.548210121441343</v>
       </c>
       <c r="H16">
-        <v>0.3968880122874339</v>
+        <v>0.7242430871725958</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.702398612130537</v>
+        <v>4.755281211551448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.003867535620493356</v>
+        <v>0.007608183454767214</v>
       </c>
       <c r="E17">
-        <v>0.629809763319642</v>
+        <v>2.331168706861192</v>
       </c>
       <c r="F17">
-        <v>0.5454146261147201</v>
+        <v>1.480312321517161</v>
       </c>
       <c r="G17">
-        <v>0.4612626808594769</v>
+        <v>1.477619640781541</v>
       </c>
       <c r="H17">
-        <v>0.3901974874650023</v>
+        <v>0.6932223413563747</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.651383722660228</v>
+        <v>4.540526966263201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.003820291157719424</v>
+        <v>0.007419189712429386</v>
       </c>
       <c r="E18">
-        <v>0.6142624613427188</v>
+        <v>2.263888576377539</v>
       </c>
       <c r="F18">
-        <v>0.5358494138643692</v>
+        <v>1.440613032443906</v>
       </c>
       <c r="G18">
-        <v>0.4512744032265061</v>
+        <v>1.437326779334825</v>
       </c>
       <c r="H18">
-        <v>0.3863708487733675</v>
+        <v>0.6755347551190596</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.622120123892671</v>
+        <v>4.417983711144132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.003804318213450841</v>
+        <v>0.007355419271018349</v>
       </c>
       <c r="E19">
-        <v>0.6090015003014315</v>
+        <v>2.241238163662516</v>
       </c>
       <c r="F19">
-        <v>0.5326151957723084</v>
+        <v>1.427220847244627</v>
       </c>
       <c r="G19">
-        <v>0.4478953566152484</v>
+        <v>1.423734890859862</v>
       </c>
       <c r="H19">
-        <v>0.3850789144428859</v>
+        <v>0.66957149556535</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.612225456820568</v>
+        <v>4.376652997491249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.003876290507584201</v>
+        <v>0.007643269513916806</v>
       </c>
       <c r="E20">
-        <v>0.6326887045236305</v>
+        <v>2.343683935536816</v>
       </c>
       <c r="F20">
-        <v>0.5471870247896504</v>
+        <v>1.48768373099675</v>
       </c>
       <c r="G20">
-        <v>0.4631126271813173</v>
+        <v>1.485101550843126</v>
       </c>
       <c r="H20">
-        <v>0.3909074710753089</v>
+        <v>0.696508269332071</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.656806175146869</v>
+        <v>4.563284905654598</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004119704539757407</v>
+        <v>0.008627785649217401</v>
       </c>
       <c r="E21">
-        <v>0.7125001682737064</v>
+        <v>2.697966739097112</v>
       </c>
       <c r="F21">
-        <v>0.5964544477322562</v>
+        <v>1.694600906553859</v>
       </c>
       <c r="G21">
-        <v>0.5144389481118878</v>
+        <v>1.695169425529969</v>
       </c>
       <c r="H21">
-        <v>0.4107488063637277</v>
+        <v>0.7889484044629853</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.807536841490787</v>
+        <v>5.202617682842174</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.004279959021001645</v>
+        <v>0.009286977287295883</v>
       </c>
       <c r="E22">
-        <v>0.764842669832106</v>
+        <v>2.938413411564511</v>
       </c>
       <c r="F22">
-        <v>0.6288856518110322</v>
+        <v>1.83307496087194</v>
       </c>
       <c r="G22">
-        <v>0.5481347357245454</v>
+        <v>1.835821354730683</v>
       </c>
       <c r="H22">
-        <v>0.423909655295347</v>
+        <v>0.851017286234196</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.906761666784746</v>
+        <v>5.631035743392715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00419432250913232</v>
+        <v>0.008933513373175828</v>
       </c>
       <c r="E23">
-        <v>0.7368890890761435</v>
+        <v>2.809170915509938</v>
       </c>
       <c r="F23">
-        <v>0.6115551107154289</v>
+        <v>1.75884252607699</v>
       </c>
       <c r="G23">
-        <v>0.5301366292088687</v>
+        <v>1.760413326892944</v>
       </c>
       <c r="H23">
-        <v>0.4168677050772089</v>
+        <v>0.8177241488517382</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.85373763995716</v>
+        <v>5.401315056717635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003872332070940843</v>
+        <v>0.007627403175934688</v>
       </c>
       <c r="E24">
-        <v>0.6313870999755409</v>
+        <v>2.338023436638267</v>
       </c>
       <c r="F24">
-        <v>0.5463856568671019</v>
+        <v>1.484350243086766</v>
       </c>
       <c r="G24">
-        <v>0.4622762292457878</v>
+        <v>1.481718080754149</v>
       </c>
       <c r="H24">
-        <v>0.3905864257188227</v>
+        <v>0.6950222474172847</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.654354480355266</v>
+        <v>4.552993189744882</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.003530170004236055</v>
+        <v>0.006269286364986471</v>
       </c>
       <c r="E25">
-        <v>0.5182800985497948</v>
+        <v>1.859524139094248</v>
       </c>
       <c r="F25">
-        <v>0.477070003046336</v>
+        <v>1.199509197689281</v>
       </c>
       <c r="G25">
-        <v>0.3897053291207442</v>
+        <v>1.192647888633047</v>
       </c>
       <c r="H25">
-        <v>0.3630617902832967</v>
+        <v>0.5684647483349465</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.442293097308493</v>
+        <v>3.674513817176035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1981209425069181</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005298165396427024</v>
+        <v>0.02366353568666568</v>
       </c>
       <c r="E2">
-        <v>1.52493115089608</v>
+        <v>1.347699342103724</v>
       </c>
       <c r="F2">
-        <v>0.9968661724061576</v>
+        <v>0.9932600741204993</v>
       </c>
       <c r="G2">
-        <v>0.9869680518151256</v>
+        <v>0.9353391761656837</v>
       </c>
       <c r="H2">
-        <v>0.4790111096858709</v>
+        <v>0.01048447999389611</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006245631680921182</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5806034739895694</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3056446417451308</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.163182621127078</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.050645075630655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.1724381679387363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004652449415834425</v>
+        <v>0.02302348967686285</v>
       </c>
       <c r="E3">
-        <v>1.306053004890472</v>
+        <v>1.169070515888393</v>
       </c>
       <c r="F3">
-        <v>0.8628529833462437</v>
+        <v>0.8993923378755682</v>
       </c>
       <c r="G3">
-        <v>0.8508712951368835</v>
+        <v>0.8445411452765512</v>
       </c>
       <c r="H3">
-        <v>0.4201828794666795</v>
+        <v>0.006920767982971809</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007863271325295962</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5438389769906848</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3163233272211929</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.754926915089811</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.638560695354812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.156369780766525</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004260646586253358</v>
+        <v>0.02261640411577126</v>
       </c>
       <c r="E4">
-        <v>1.174656493552405</v>
+        <v>1.060065244413366</v>
       </c>
       <c r="F4">
-        <v>0.781887075144752</v>
+        <v>0.8427881713774923</v>
       </c>
       <c r="G4">
-        <v>0.7685931899414129</v>
+        <v>0.7897561331826921</v>
       </c>
       <c r="H4">
-        <v>0.3847939684976325</v>
+        <v>0.005046810037407368</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009019173174543038</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5218267653607001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3229960177217102</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.506238046492797</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.389784592458739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.1491089268408388</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101975997041762</v>
+        <v>0.02247071279991353</v>
       </c>
       <c r="E5">
-        <v>1.121746707635722</v>
+        <v>1.015777070578878</v>
       </c>
       <c r="F5">
-        <v>0.7491814915978097</v>
+        <v>0.8188127672877243</v>
       </c>
       <c r="G5">
-        <v>0.7353419341014416</v>
+        <v>0.7663512206869996</v>
       </c>
       <c r="H5">
-        <v>0.3705360649489222</v>
+        <v>0.004355153847707127</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.009615148661303419</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5123138852662237</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.32523206417331</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.408281312551594</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.289333870716746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1471187006061569</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00407568397167779</v>
+        <v>0.02247556943316198</v>
       </c>
       <c r="E6">
-        <v>1.112996220327418</v>
+        <v>1.008424841004867</v>
       </c>
       <c r="F6">
-        <v>0.7437669979451584</v>
+        <v>0.8134535226141963</v>
       </c>
       <c r="G6">
-        <v>0.7298360984162287</v>
+        <v>0.7608984683486852</v>
       </c>
       <c r="H6">
-        <v>0.3681778445339177</v>
+        <v>0.004244031913465118</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.009828547546970157</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5099230500535157</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3249862733300208</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.395659514183563</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.272706244722912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.154131906431374</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004258502903166317</v>
+        <v>0.02269494660297156</v>
       </c>
       <c r="E7">
-        <v>1.17394050868252</v>
+        <v>1.059452213859373</v>
       </c>
       <c r="F7">
-        <v>0.78144488166744</v>
+        <v>0.8386627773520843</v>
       </c>
       <c r="G7">
-        <v>0.7681436849631638</v>
+        <v>0.7851261200750628</v>
       </c>
       <c r="H7">
-        <v>0.3846010460907223</v>
+        <v>0.005035863775190941</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.009316509290074215</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5194634294393268</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3213391970101078</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.514825810987503</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.388426300191014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1864677772271222</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005074435093822771</v>
+        <v>0.02355575278578925</v>
       </c>
       <c r="E8">
-        <v>1.448765505945104</v>
+        <v>1.285928279162633</v>
       </c>
       <c r="F8">
-        <v>0.9503577801120855</v>
+        <v>0.9556299712590715</v>
       </c>
       <c r="G8">
-        <v>0.939746365444222</v>
+        <v>0.8980996400622843</v>
       </c>
       <c r="H8">
-        <v>0.4585622545726693</v>
+        <v>0.009184321009516772</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.007115846376090751</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5648520034058606</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.307112444203911</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.035200809909327</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.907589319884806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2513366159875403</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006721431169427916</v>
+        <v>0.02498015014190713</v>
       </c>
       <c r="E9">
-        <v>2.017483874186297</v>
+        <v>1.736995315739165</v>
       </c>
       <c r="F9">
-        <v>1.294198833933351</v>
+        <v>1.201469017953229</v>
       </c>
       <c r="G9">
-        <v>1.288739143502397</v>
+        <v>1.136558896801432</v>
       </c>
       <c r="H9">
-        <v>0.6104393485628066</v>
+        <v>0.02013275702543549</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00373530113188103</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6630015978381607</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2831320986793298</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.056642424858978</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.966343654729485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2997468871640336</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007977092752696535</v>
+        <v>0.02683149865644197</v>
       </c>
       <c r="E10">
-        <v>2.463144888214842</v>
+        <v>1.971547667529052</v>
       </c>
       <c r="F10">
-        <v>1.557834171831686</v>
+        <v>1.362441236642724</v>
       </c>
       <c r="G10">
-        <v>1.556308785808426</v>
+        <v>1.288092232844832</v>
       </c>
       <c r="H10">
-        <v>0.7278046150333637</v>
+        <v>0.02950158040216566</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002383371101710274</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7237095443999806</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.262095302830323</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.808894657025576</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.779924602685014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.3483970662487081</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008563135149518786</v>
+        <v>0.03690510310544326</v>
       </c>
       <c r="E11">
-        <v>2.67452159646794</v>
+        <v>1.280479295787401</v>
       </c>
       <c r="F11">
-        <v>1.681013446550395</v>
+        <v>1.213438322728237</v>
       </c>
       <c r="G11">
-        <v>1.681371632577509</v>
+        <v>1.106578560926494</v>
       </c>
       <c r="H11">
-        <v>0.7828666219905926</v>
+        <v>0.04478985398014146</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002633453014191822</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.627462991267322</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2277049646744675</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.000941693076243</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.160604547285061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.3849640907265695</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.00878770416700192</v>
+        <v>0.04720727644318856</v>
       </c>
       <c r="E12">
-        <v>2.756066497554158</v>
+        <v>0.7809799703917832</v>
       </c>
       <c r="F12">
-        <v>1.728207105980999</v>
+        <v>1.067207746663527</v>
       </c>
       <c r="G12">
-        <v>1.729298286119644</v>
+        <v>0.9401520459720416</v>
       </c>
       <c r="H12">
-        <v>0.8039973304418311</v>
+        <v>0.08027095157648034</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002591402955440358</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5422171088919185</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2119975786081176</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.986910013987085</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.30654847338036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.4105255206597462</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.00873921210494899</v>
+        <v>0.05821075539042653</v>
       </c>
       <c r="E13">
-        <v>2.738433005009725</v>
+        <v>0.4009907382104103</v>
       </c>
       <c r="F13">
-        <v>1.718017316158253</v>
+        <v>0.9093714648757327</v>
       </c>
       <c r="G13">
-        <v>1.718949644460366</v>
+        <v>0.7697217167604578</v>
       </c>
       <c r="H13">
-        <v>0.7994333189917029</v>
+        <v>0.132659210520444</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002707738166413343</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4572918076162296</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2067283043766497</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.829911467326269</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.275032637844561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.422669753256983</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008581554186182672</v>
+        <v>0.06646562741594408</v>
       </c>
       <c r="E14">
-        <v>2.681198627115009</v>
+        <v>0.2080124587157428</v>
       </c>
       <c r="F14">
-        <v>1.684884606224955</v>
+        <v>0.7949478629729327</v>
       </c>
       <c r="G14">
-        <v>1.685302661151837</v>
+        <v>0.6504919248226884</v>
       </c>
       <c r="H14">
-        <v>0.7845992030045181</v>
+        <v>0.1797358570097458</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002956433827599803</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3987683969136668</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.208339055900173</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.65979525011511</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.172573933209151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.4218624115235485</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008485346035502772</v>
+        <v>0.06839080639699091</v>
       </c>
       <c r="E15">
-        <v>2.646344802390672</v>
+        <v>0.1698855004054494</v>
       </c>
       <c r="F15">
-        <v>1.664663857490439</v>
+        <v>0.7627797275503099</v>
       </c>
       <c r="G15">
-        <v>1.664769677683552</v>
+        <v>0.618163070897694</v>
       </c>
       <c r="H15">
-        <v>0.7755505943766252</v>
+        <v>0.1914760378083855</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003184938367148504</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3834056027364454</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2101233199695933</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.592317466029442</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.110056509087201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.393316199819381</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007939133608157789</v>
+        <v>0.06496994382712273</v>
       </c>
       <c r="E16">
-        <v>2.449525978174464</v>
+        <v>0.1638673446378291</v>
       </c>
       <c r="F16">
-        <v>1.5498562064693</v>
+        <v>0.7273472060564217</v>
       </c>
       <c r="G16">
-        <v>1.548210121441343</v>
+        <v>0.5898063042657213</v>
       </c>
       <c r="H16">
-        <v>0.7242430871725958</v>
+        <v>0.1759065576261207</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003847038286451721</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3751487543836873</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2186438777120365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.310778355013952</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.755281211551448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.3649861229577596</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007608183454767214</v>
+        <v>0.05786564434353636</v>
       </c>
       <c r="E17">
-        <v>2.331168706861192</v>
+        <v>0.2474827691912509</v>
       </c>
       <c r="F17">
-        <v>1.480312321517161</v>
+        <v>0.759562057605649</v>
       </c>
       <c r="G17">
-        <v>1.477619640781541</v>
+        <v>0.6294722123978289</v>
       </c>
       <c r="H17">
-        <v>0.6932223413563747</v>
+        <v>0.1370626192727116</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004265133291410983</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3990957363613035</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2238990441216213</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.185305129419248</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.540526966263201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.3365716881574627</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007419189712429386</v>
+        <v>0.04762748700844099</v>
       </c>
       <c r="E18">
-        <v>2.263888576377539</v>
+        <v>0.4811730571294603</v>
       </c>
       <c r="F18">
-        <v>1.440613032443906</v>
+        <v>0.8601466823666897</v>
       </c>
       <c r="G18">
-        <v>1.437326779334825</v>
+        <v>0.7410170118302233</v>
       </c>
       <c r="H18">
-        <v>0.6755347551190596</v>
+        <v>0.08497863507084702</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0041521811872407</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4576489380810074</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2301642084962285</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.170685877977746</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.417983711144132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.3064773953692281</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007355419271018349</v>
+        <v>0.0374790425884477</v>
       </c>
       <c r="E19">
-        <v>2.241238163662516</v>
+        <v>0.9175218521078676</v>
       </c>
       <c r="F19">
-        <v>1.427220847244627</v>
+        <v>1.010255507608179</v>
       </c>
       <c r="G19">
-        <v>1.423734890859862</v>
+        <v>0.9069669472617221</v>
       </c>
       <c r="H19">
-        <v>0.66957149556535</v>
+        <v>0.04273684018806279</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004168149156674517</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5414804342767781</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2407455771037501</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.266984984942837</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.376652997491249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.2804260177439062</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007643269513916806</v>
+        <v>0.02667316159203992</v>
       </c>
       <c r="E20">
-        <v>2.343683935536816</v>
+        <v>1.90526175052446</v>
       </c>
       <c r="F20">
-        <v>1.48768373099675</v>
+        <v>1.3067440887896</v>
       </c>
       <c r="G20">
-        <v>1.485101550843126</v>
+        <v>1.23316629101646</v>
       </c>
       <c r="H20">
-        <v>0.696508269332071</v>
+        <v>0.02683167566931699</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003524874337121453</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7000109279454136</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2627545106806597</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.641257822872376</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.563284905654598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.3133540385973959</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008627785649217401</v>
+        <v>0.02672307317006073</v>
       </c>
       <c r="E21">
-        <v>2.697966739097112</v>
+        <v>2.247817791308847</v>
       </c>
       <c r="F21">
-        <v>1.694600906553859</v>
+        <v>1.476027896515603</v>
       </c>
       <c r="G21">
-        <v>1.695169425529969</v>
+        <v>1.400974642773974</v>
       </c>
       <c r="H21">
-        <v>0.7889484044629853</v>
+        <v>0.03619196958569981</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00258669678697121</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7721477910072281</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2530125875639015</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.24877313559216</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.202617682842174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.3391045271325197</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009286977287295883</v>
+        <v>0.02705001204524038</v>
       </c>
       <c r="E22">
-        <v>2.938413411564511</v>
+        <v>2.421203156346124</v>
       </c>
       <c r="F22">
-        <v>1.83307496087194</v>
+        <v>1.580739344696639</v>
       </c>
       <c r="G22">
-        <v>1.835821354730683</v>
+        <v>1.503593224207435</v>
       </c>
       <c r="H22">
-        <v>0.851017286234196</v>
+        <v>0.04243639399585497</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001872648450139458</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8159443629354541</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2470993369055225</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.627210011623333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.631035743392715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.3279680416440982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008933513373175828</v>
+        <v>0.02676800343880359</v>
       </c>
       <c r="E23">
-        <v>2.809170915509938</v>
+        <v>2.328477160772195</v>
       </c>
       <c r="F23">
-        <v>1.75884252607699</v>
+        <v>1.529098136265574</v>
       </c>
       <c r="G23">
-        <v>1.760413326892944</v>
+        <v>1.453675516131455</v>
       </c>
       <c r="H23">
-        <v>0.8177241488517382</v>
+        <v>0.03905103539351806</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001911765032302171</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7950566690692256</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2520094567623836</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.412628391190594</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.401315056717635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.2812128274355388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007627403175934688</v>
+        <v>0.02584209197264542</v>
       </c>
       <c r="E24">
-        <v>2.338023436638267</v>
+        <v>1.981397050219499</v>
       </c>
       <c r="F24">
-        <v>1.484350243086766</v>
+        <v>1.3312403770326</v>
       </c>
       <c r="G24">
-        <v>1.481718080754149</v>
+        <v>1.261393826120695</v>
       </c>
       <c r="H24">
-        <v>0.6950222474172847</v>
+        <v>0.02736632524955951</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002986702838488675</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7142651874792136</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2681905476118853</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.628255293233394</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.552993189744882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.2301213318278172</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006269286364986471</v>
+        <v>0.02476479488813865</v>
       </c>
       <c r="E25">
-        <v>1.859524139094248</v>
+        <v>1.613968076881662</v>
       </c>
       <c r="F25">
-        <v>1.199509197689281</v>
+        <v>1.126841426488468</v>
       </c>
       <c r="G25">
-        <v>1.192647888633047</v>
+        <v>1.06304021868759</v>
       </c>
       <c r="H25">
-        <v>0.5684647483349465</v>
+        <v>0.01682021031798264</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004970637000725198</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.631781133947058</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2866402279924856</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.796127625353336</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.674513817176035</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1981209425069181</v>
+        <v>0.1897642746149586</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02366353568666568</v>
+        <v>0.02441004749887909</v>
       </c>
       <c r="E2">
-        <v>1.347699342103724</v>
+        <v>1.346240138629923</v>
       </c>
       <c r="F2">
-        <v>0.9932600741204993</v>
+        <v>0.9733741795658659</v>
       </c>
       <c r="G2">
-        <v>0.9353391761656837</v>
+        <v>0.8897991071803233</v>
       </c>
       <c r="H2">
-        <v>0.01048447999389611</v>
+        <v>0.01032606567700155</v>
       </c>
       <c r="I2">
-        <v>0.006245631680921182</v>
+        <v>0.003539490977172655</v>
       </c>
       <c r="J2">
-        <v>0.5806034739895694</v>
+        <v>0.6192965960681533</v>
       </c>
       <c r="K2">
-        <v>0.3056446417451308</v>
+        <v>0.2652709932181043</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1277146527284057</v>
       </c>
       <c r="M2">
-        <v>3.163182621127078</v>
+        <v>0.07595361661978206</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.194086324563216</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1724381679387363</v>
+        <v>0.1688691083174945</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02302348967686285</v>
+        <v>0.02342305735253802</v>
       </c>
       <c r="E3">
-        <v>1.169070515888393</v>
+        <v>1.168527561269443</v>
       </c>
       <c r="F3">
-        <v>0.8993923378755682</v>
+        <v>0.8865129034181365</v>
       </c>
       <c r="G3">
-        <v>0.8445411452765512</v>
+        <v>0.8070887846247956</v>
       </c>
       <c r="H3">
-        <v>0.006920767982971809</v>
+        <v>0.006868368528551994</v>
       </c>
       <c r="I3">
-        <v>0.007863271325295962</v>
+        <v>0.004493693408435195</v>
       </c>
       <c r="J3">
-        <v>0.5438389769906848</v>
+        <v>0.5829492981513766</v>
       </c>
       <c r="K3">
-        <v>0.3163233272211929</v>
+        <v>0.2759952649878183</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1334707011218548</v>
       </c>
       <c r="M3">
-        <v>2.754926915089811</v>
+        <v>0.07986804115810742</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.767865664271056</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.156369780766525</v>
+        <v>0.155698150905792</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02261640411577126</v>
+        <v>0.0228079180078673</v>
       </c>
       <c r="E4">
-        <v>1.060065244413366</v>
+        <v>1.060019227707997</v>
       </c>
       <c r="F4">
-        <v>0.8427881713774923</v>
+        <v>0.8339954318208385</v>
       </c>
       <c r="G4">
-        <v>0.7897561331826921</v>
+        <v>0.7573246298035627</v>
       </c>
       <c r="H4">
-        <v>0.005046810037407368</v>
+        <v>0.005042779125070451</v>
       </c>
       <c r="I4">
-        <v>0.009019173174543038</v>
+        <v>0.00520211940434967</v>
       </c>
       <c r="J4">
-        <v>0.5218267653607001</v>
+        <v>0.5607675256076732</v>
       </c>
       <c r="K4">
-        <v>0.3229960177217102</v>
+        <v>0.2826817642077639</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1372549933697353</v>
       </c>
       <c r="M4">
-        <v>2.506238046492797</v>
+        <v>0.08260390955944041</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.508402388247362</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1491089268408388</v>
+        <v>0.1497077104956048</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02247071279991353</v>
+        <v>0.02257569592116582</v>
       </c>
       <c r="E5">
-        <v>1.015777070578878</v>
+        <v>1.015919794567836</v>
       </c>
       <c r="F5">
-        <v>0.8188127672877243</v>
+        <v>0.8118126083905679</v>
       </c>
       <c r="G5">
-        <v>0.7663512206869996</v>
+        <v>0.7361880849106797</v>
       </c>
       <c r="H5">
-        <v>0.004355153847707127</v>
+        <v>0.004367078614649023</v>
       </c>
       <c r="I5">
-        <v>0.009615148661303419</v>
+        <v>0.005614738163670197</v>
       </c>
       <c r="J5">
-        <v>0.5123138852662237</v>
+        <v>0.5511792078221305</v>
       </c>
       <c r="K5">
-        <v>0.32523206417331</v>
+        <v>0.2850311068561115</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1386123994875685</v>
       </c>
       <c r="M5">
-        <v>2.408281312551594</v>
+        <v>0.08374801930698639</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.405694487434999</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1471187006061569</v>
+        <v>0.148051526736694</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02247556943316198</v>
+        <v>0.02256255116029848</v>
       </c>
       <c r="E6">
-        <v>1.008424841004867</v>
+        <v>1.008598920023218</v>
       </c>
       <c r="F6">
-        <v>0.8134535226141963</v>
+        <v>0.806966535366783</v>
       </c>
       <c r="G6">
-        <v>0.7608984683486852</v>
+        <v>0.7313712907032226</v>
       </c>
       <c r="H6">
-        <v>0.004244031913465118</v>
+        <v>0.004258454598840666</v>
       </c>
       <c r="I6">
-        <v>0.009828547546970157</v>
+        <v>0.005809201591812752</v>
       </c>
       <c r="J6">
-        <v>0.5099230500535157</v>
+        <v>0.5488854750470722</v>
       </c>
       <c r="K6">
-        <v>0.3249862733300208</v>
+        <v>0.2849392413060734</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1385427465756273</v>
       </c>
       <c r="M6">
-        <v>2.395659514183563</v>
+        <v>0.08387739616624634</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.391760734375566</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.154131906431374</v>
+        <v>0.1543326520550039</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02269494660297156</v>
+        <v>0.02295316713824036</v>
       </c>
       <c r="E7">
-        <v>1.059452213859373</v>
+        <v>1.059341293341078</v>
       </c>
       <c r="F7">
-        <v>0.8386627773520843</v>
+        <v>0.8277266302118704</v>
       </c>
       <c r="G7">
-        <v>0.7851261200750628</v>
+        <v>0.756648278966793</v>
       </c>
       <c r="H7">
-        <v>0.005035863775190941</v>
+        <v>0.005026155349156625</v>
       </c>
       <c r="I7">
-        <v>0.009316509290074215</v>
+        <v>0.005531739995475071</v>
       </c>
       <c r="J7">
-        <v>0.5194634294393268</v>
+        <v>0.5504334441118317</v>
       </c>
       <c r="K7">
-        <v>0.3213391970101078</v>
+        <v>0.2810897411667197</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1363072336603608</v>
       </c>
       <c r="M7">
-        <v>2.514825810987503</v>
+        <v>0.08236114057469379</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.512882934638583</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1864677772271222</v>
+        <v>0.181956197506338</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02355575278578925</v>
+        <v>0.02444167818431708</v>
       </c>
       <c r="E8">
-        <v>1.285928279162633</v>
+        <v>1.284559080799951</v>
       </c>
       <c r="F8">
-        <v>0.9556299712590715</v>
+        <v>0.9298104121997426</v>
       </c>
       <c r="G8">
-        <v>0.8980996400622843</v>
+        <v>0.8670880377542858</v>
       </c>
       <c r="H8">
-        <v>0.009184321009516772</v>
+        <v>0.009041007975357424</v>
       </c>
       <c r="I8">
-        <v>0.007115846376090751</v>
+        <v>0.004239945326778738</v>
       </c>
       <c r="J8">
-        <v>0.5648520034058606</v>
+        <v>0.5768679687146943</v>
       </c>
       <c r="K8">
-        <v>0.307112444203911</v>
+        <v>0.266349141972392</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1282835733325669</v>
       </c>
       <c r="M8">
-        <v>3.035200809909327</v>
+        <v>0.07663974505422377</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.049164674016993</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2513366159875403</v>
+        <v>0.2347724003605691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02498015014190713</v>
+        <v>0.02686358101927766</v>
       </c>
       <c r="E9">
-        <v>1.736995315739165</v>
+        <v>1.732771141547715</v>
       </c>
       <c r="F9">
-        <v>1.201469017953229</v>
+        <v>1.153526501872619</v>
       </c>
       <c r="G9">
-        <v>1.136558896801432</v>
+        <v>1.088150934145006</v>
       </c>
       <c r="H9">
-        <v>0.02013275702543549</v>
+        <v>0.01959409801824696</v>
       </c>
       <c r="I9">
-        <v>0.00373530113188103</v>
+        <v>0.002232851438298766</v>
       </c>
       <c r="J9">
-        <v>0.6630015978381607</v>
+        <v>0.6631394314373722</v>
       </c>
       <c r="K9">
-        <v>0.2831320986793298</v>
+        <v>0.24160696490401</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1163330408286178</v>
       </c>
       <c r="M9">
-        <v>4.056642424858978</v>
+        <v>0.06877364634468375</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.11554566846894</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2997468871640336</v>
+        <v>0.2784515464886539</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02683149865644197</v>
+        <v>0.03006298057431067</v>
       </c>
       <c r="E10">
-        <v>1.971547667529052</v>
+        <v>1.96444353028339</v>
       </c>
       <c r="F10">
-        <v>1.362441236642724</v>
+        <v>1.283679670491551</v>
       </c>
       <c r="G10">
-        <v>1.288092232844832</v>
+        <v>1.250085425845299</v>
       </c>
       <c r="H10">
-        <v>0.02950158040216566</v>
+        <v>0.02850663514431506</v>
       </c>
       <c r="I10">
-        <v>0.002383371101710274</v>
+        <v>0.001658602075885085</v>
       </c>
       <c r="J10">
-        <v>0.7237095443999806</v>
+        <v>0.6675721949574864</v>
       </c>
       <c r="K10">
-        <v>0.262095302830323</v>
+        <v>0.2203900132402676</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1076193479852576</v>
       </c>
       <c r="M10">
-        <v>4.808894657025576</v>
+        <v>0.06304368702826135</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.879171406934972</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3483970662487081</v>
+        <v>0.3408330612001009</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03690510310544326</v>
+        <v>0.04251955884618752</v>
       </c>
       <c r="E11">
-        <v>1.280479295787401</v>
+        <v>1.273534292442406</v>
       </c>
       <c r="F11">
-        <v>1.213438322728237</v>
+        <v>1.119281324290142</v>
       </c>
       <c r="G11">
-        <v>1.106578560926494</v>
+        <v>1.126725278040254</v>
       </c>
       <c r="H11">
-        <v>0.04478985398014146</v>
+        <v>0.04368912349119469</v>
       </c>
       <c r="I11">
-        <v>0.002633453014191822</v>
+        <v>0.002178188406177561</v>
       </c>
       <c r="J11">
-        <v>0.627462991267322</v>
+        <v>0.4980016920876409</v>
       </c>
       <c r="K11">
-        <v>0.2277049646744675</v>
+        <v>0.1969510460136048</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.10025827058327</v>
       </c>
       <c r="M11">
-        <v>5.000941693076243</v>
+        <v>0.05381592080758946</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.999130619413847</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3849640907265695</v>
+        <v>0.3889588295400586</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04720727644318856</v>
+        <v>0.05426976041761833</v>
       </c>
       <c r="E12">
-        <v>0.7809799703917832</v>
+        <v>0.7749988835375063</v>
       </c>
       <c r="F12">
-        <v>1.067207746663527</v>
+        <v>0.9761208648554174</v>
       </c>
       <c r="G12">
-        <v>0.9401520459720416</v>
+        <v>0.9890518966401771</v>
       </c>
       <c r="H12">
-        <v>0.08027095157648034</v>
+        <v>0.07920145391329925</v>
       </c>
       <c r="I12">
-        <v>0.002591402955440358</v>
+        <v>0.002160488406599548</v>
       </c>
       <c r="J12">
-        <v>0.5422171088919185</v>
+        <v>0.3980759454984906</v>
       </c>
       <c r="K12">
-        <v>0.2119975786081176</v>
+        <v>0.1885701926877438</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09859197337837688</v>
       </c>
       <c r="M12">
-        <v>4.986910013987085</v>
+        <v>0.04958080991949876</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.934112952295322</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4105255206597462</v>
+        <v>0.4235376285231212</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05821075539042653</v>
+        <v>0.06507649998867748</v>
       </c>
       <c r="E13">
-        <v>0.4009907382104103</v>
+        <v>0.3964285925802997</v>
       </c>
       <c r="F13">
-        <v>0.9093714648757327</v>
+        <v>0.8400525489980026</v>
       </c>
       <c r="G13">
-        <v>0.7697217167604578</v>
+        <v>0.8225658726384353</v>
       </c>
       <c r="H13">
-        <v>0.132659210520444</v>
+        <v>0.1317293330209139</v>
       </c>
       <c r="I13">
-        <v>0.002707738166413343</v>
+        <v>0.002185474338830318</v>
       </c>
       <c r="J13">
-        <v>0.4572918076162296</v>
+        <v>0.3447115769267697</v>
       </c>
       <c r="K13">
-        <v>0.2067283043766497</v>
+        <v>0.1879837690424955</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09919566072159913</v>
       </c>
       <c r="M13">
-        <v>4.829911467326269</v>
+        <v>0.04831986257043885</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.744473166809257</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.422669753256983</v>
+        <v>0.440870075909416</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06646562741594408</v>
+        <v>0.07217350752369356</v>
       </c>
       <c r="E14">
-        <v>0.2080124587157428</v>
+        <v>0.2044728655893095</v>
       </c>
       <c r="F14">
-        <v>0.7949478629729327</v>
+        <v>0.7472924288568095</v>
       </c>
       <c r="G14">
-        <v>0.6504919248226884</v>
+        <v>0.6970154110321118</v>
       </c>
       <c r="H14">
-        <v>0.1797358570097458</v>
+        <v>0.1789360232783963</v>
       </c>
       <c r="I14">
-        <v>0.002956433827599803</v>
+        <v>0.002328833924304163</v>
       </c>
       <c r="J14">
-        <v>0.3987683969136668</v>
+        <v>0.3232284177585854</v>
       </c>
       <c r="K14">
-        <v>0.208339055900173</v>
+        <v>0.1907676748353611</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1003119631290206</v>
       </c>
       <c r="M14">
-        <v>4.65979525011511</v>
+        <v>0.04887488501097681</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.558939130726174</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4218624115235485</v>
+        <v>0.4407894571395872</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06839080639699091</v>
+        <v>0.07341131666146339</v>
       </c>
       <c r="E15">
-        <v>0.1698855004054494</v>
+        <v>0.1666565314049606</v>
       </c>
       <c r="F15">
-        <v>0.7627797275503099</v>
+        <v>0.7234773896176989</v>
       </c>
       <c r="G15">
-        <v>0.618163070897694</v>
+        <v>0.6599324192552416</v>
       </c>
       <c r="H15">
-        <v>0.1914760378083855</v>
+        <v>0.1907296029182106</v>
       </c>
       <c r="I15">
-        <v>0.003184938367148504</v>
+        <v>0.002522790771058325</v>
       </c>
       <c r="J15">
-        <v>0.3834056027364454</v>
+        <v>0.3235132581471163</v>
       </c>
       <c r="K15">
-        <v>0.2101233199695933</v>
+        <v>0.1923381499049714</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.100691795011504</v>
       </c>
       <c r="M15">
-        <v>4.592317466029442</v>
+        <v>0.04945003517265789</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.490364620903961</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.393316199819381</v>
+        <v>0.4065612331527007</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06496994382712273</v>
+        <v>0.06716540669583537</v>
       </c>
       <c r="E16">
-        <v>0.1638673446378291</v>
+        <v>0.1614326714805223</v>
       </c>
       <c r="F16">
-        <v>0.7273472060564217</v>
+        <v>0.7142368472736962</v>
       </c>
       <c r="G16">
-        <v>0.5898063042657213</v>
+        <v>0.6043232326369292</v>
       </c>
       <c r="H16">
-        <v>0.1759065576261207</v>
+        <v>0.175376654372144</v>
       </c>
       <c r="I16">
-        <v>0.003847038286451721</v>
+        <v>0.002911144344095007</v>
       </c>
       <c r="J16">
-        <v>0.3751487543836873</v>
+        <v>0.3753340811147154</v>
       </c>
       <c r="K16">
-        <v>0.2186438777120365</v>
+        <v>0.198513205147008</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1010376480249908</v>
       </c>
       <c r="M16">
-        <v>4.310778355013952</v>
+        <v>0.05270220567083506</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.235315222256816</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3649861229577596</v>
+        <v>0.3723976911805948</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05786564434353636</v>
+        <v>0.05919797675338145</v>
       </c>
       <c r="E17">
-        <v>0.2474827691912509</v>
+        <v>0.2452204599080972</v>
       </c>
       <c r="F17">
-        <v>0.759562057605649</v>
+        <v>0.7535953271890463</v>
       </c>
       <c r="G17">
-        <v>0.6294722123978289</v>
+        <v>0.6288377326871597</v>
       </c>
       <c r="H17">
-        <v>0.1370626192727116</v>
+        <v>0.1366216457918199</v>
       </c>
       <c r="I17">
-        <v>0.004265133291410983</v>
+        <v>0.003171001588709643</v>
       </c>
       <c r="J17">
-        <v>0.3990957363613035</v>
+        <v>0.423936913895318</v>
       </c>
       <c r="K17">
-        <v>0.2238990441216213</v>
+        <v>0.202486054473896</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1014438346736943</v>
       </c>
       <c r="M17">
-        <v>4.185305129419248</v>
+        <v>0.05480134136456405</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.133964652436362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3365716881574627</v>
+        <v>0.335972177921974</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04762748700844099</v>
+        <v>0.04908560390101968</v>
       </c>
       <c r="E18">
-        <v>0.4811730571294603</v>
+        <v>0.478624733682814</v>
       </c>
       <c r="F18">
-        <v>0.8601466823666897</v>
+        <v>0.8498369248831636</v>
       </c>
       <c r="G18">
-        <v>0.7410170118302233</v>
+        <v>0.7258729679717533</v>
       </c>
       <c r="H18">
-        <v>0.08497863507084702</v>
+        <v>0.08454708671884958</v>
       </c>
       <c r="I18">
-        <v>0.0041521811872407</v>
+        <v>0.002958786932075519</v>
       </c>
       <c r="J18">
-        <v>0.4576489380810074</v>
+        <v>0.4897698907249151</v>
       </c>
       <c r="K18">
-        <v>0.2301642084962285</v>
+        <v>0.2068878203363076</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1026442445193609</v>
       </c>
       <c r="M18">
-        <v>4.170685877977746</v>
+        <v>0.05673076880884659</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.15183174694323</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3064773953692281</v>
+        <v>0.2974078975323238</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0374790425884477</v>
+        <v>0.03932354863333387</v>
       </c>
       <c r="E19">
-        <v>0.9175218521078676</v>
+        <v>0.9142047170617786</v>
       </c>
       <c r="F19">
-        <v>1.010255507608179</v>
+        <v>0.9880951194131029</v>
       </c>
       <c r="G19">
-        <v>0.9069669472617221</v>
+        <v>0.8759512684241031</v>
       </c>
       <c r="H19">
-        <v>0.04273684018806279</v>
+        <v>0.04223970602259897</v>
       </c>
       <c r="I19">
-        <v>0.004168149156674517</v>
+        <v>0.003046293166055314</v>
       </c>
       <c r="J19">
-        <v>0.5414804342767781</v>
+        <v>0.5703873669236259</v>
       </c>
       <c r="K19">
-        <v>0.2407455771037501</v>
+        <v>0.2133894569907899</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1050602655803068</v>
       </c>
       <c r="M19">
-        <v>4.266984984942837</v>
+        <v>0.05921557661126364</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.284971676465545</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2804260177439062</v>
+        <v>0.2598180475921055</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02667316159203992</v>
+        <v>0.02919254616254818</v>
       </c>
       <c r="E20">
-        <v>1.90526175052446</v>
+        <v>1.899271461950747</v>
       </c>
       <c r="F20">
-        <v>1.3067440887896</v>
+        <v>1.248316137212043</v>
       </c>
       <c r="G20">
-        <v>1.23316629101646</v>
+        <v>1.182825412163027</v>
       </c>
       <c r="H20">
-        <v>0.02683167566931699</v>
+        <v>0.02601052668360682</v>
       </c>
       <c r="I20">
-        <v>0.003524874337121453</v>
+        <v>0.002749017856728209</v>
       </c>
       <c r="J20">
-        <v>0.7000109279454136</v>
+        <v>0.6888427991335107</v>
       </c>
       <c r="K20">
-        <v>0.2627545106806597</v>
+        <v>0.2236947037603176</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1089702049478678</v>
       </c>
       <c r="M20">
-        <v>4.641257822872376</v>
+        <v>0.06360964089395704</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.713847595719812</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3133540385973959</v>
+        <v>0.2972331853848829</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02672307317006073</v>
+        <v>0.03212274981411056</v>
       </c>
       <c r="E21">
-        <v>2.247817791308847</v>
+        <v>2.237357058282868</v>
       </c>
       <c r="F21">
-        <v>1.476027896515603</v>
+        <v>1.335956474687293</v>
       </c>
       <c r="G21">
-        <v>1.400974642773974</v>
+        <v>1.419519880541515</v>
       </c>
       <c r="H21">
-        <v>0.03619196958569981</v>
+        <v>0.03468960922192998</v>
       </c>
       <c r="I21">
-        <v>0.00258669678697121</v>
+        <v>0.002332103678294395</v>
       </c>
       <c r="J21">
-        <v>0.7721477910072281</v>
+        <v>0.5705210383330694</v>
       </c>
       <c r="K21">
-        <v>0.2530125875639015</v>
+        <v>0.2072886586279656</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1030815552013813</v>
       </c>
       <c r="M21">
-        <v>5.24877313559216</v>
+        <v>0.05909615259667422</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.285887962724644</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3391045271325197</v>
+        <v>0.3270715535665687</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02705001204524038</v>
+        <v>0.03467432254410951</v>
       </c>
       <c r="E22">
-        <v>2.421203156346124</v>
+        <v>2.407622523429978</v>
       </c>
       <c r="F22">
-        <v>1.580739344696639</v>
+        <v>1.38265013831446</v>
       </c>
       <c r="G22">
-        <v>1.503593224207435</v>
+        <v>1.576221084155293</v>
       </c>
       <c r="H22">
-        <v>0.04243639399585497</v>
+        <v>0.04043036940220102</v>
       </c>
       <c r="I22">
-        <v>0.001872648450139458</v>
+        <v>0.001821095689638952</v>
       </c>
       <c r="J22">
-        <v>0.8159443629354541</v>
+        <v>0.4892081446989778</v>
       </c>
       <c r="K22">
-        <v>0.2470993369055225</v>
+        <v>0.196914170328272</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0997693726347626</v>
       </c>
       <c r="M22">
-        <v>5.627210011623333</v>
+        <v>0.05630411570741511</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.634768954593767</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3279680416440982</v>
+        <v>0.3118464942008359</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02676800343880359</v>
+        <v>0.03289099444575072</v>
       </c>
       <c r="E23">
-        <v>2.328477160772195</v>
+        <v>2.316790330040746</v>
       </c>
       <c r="F23">
-        <v>1.529098136265574</v>
+        <v>1.36850113853022</v>
       </c>
       <c r="G23">
-        <v>1.453675516131455</v>
+        <v>1.486943176702255</v>
       </c>
       <c r="H23">
-        <v>0.03905103539351806</v>
+        <v>0.0373495061118998</v>
       </c>
       <c r="I23">
-        <v>0.001911765032302171</v>
+        <v>0.001699898556278612</v>
       </c>
       <c r="J23">
-        <v>0.7950566690692256</v>
+        <v>0.5512961280185493</v>
       </c>
       <c r="K23">
-        <v>0.2520094567623836</v>
+        <v>0.2038748716097984</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1018744072661821</v>
       </c>
       <c r="M23">
-        <v>5.412628391190594</v>
+        <v>0.05849450059651762</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.44531463012612</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2812128274355388</v>
+        <v>0.2591123469880472</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02584209197264542</v>
+        <v>0.02831633372757025</v>
       </c>
       <c r="E24">
-        <v>1.981397050219499</v>
+        <v>1.975266005613577</v>
       </c>
       <c r="F24">
-        <v>1.3312403770326</v>
+        <v>1.270335958514522</v>
       </c>
       <c r="G24">
-        <v>1.261393826120695</v>
+        <v>1.207049692043256</v>
       </c>
       <c r="H24">
-        <v>0.02736632524955951</v>
+        <v>0.02653163957725635</v>
       </c>
       <c r="I24">
-        <v>0.002986702838488675</v>
+        <v>0.002125647855634405</v>
       </c>
       <c r="J24">
-        <v>0.7142651874792136</v>
+        <v>0.7028107713949794</v>
       </c>
       <c r="K24">
-        <v>0.2681905476118853</v>
+        <v>0.2270748646479639</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1101882483884973</v>
       </c>
       <c r="M24">
-        <v>4.628255293233394</v>
+        <v>0.0649292543622888</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.707745807708022</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2301213318278172</v>
+        <v>0.2168235362885298</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02476479488813865</v>
+        <v>0.02624312490354086</v>
       </c>
       <c r="E25">
-        <v>1.613968076881662</v>
+        <v>1.610718863669959</v>
       </c>
       <c r="F25">
-        <v>1.126841426488468</v>
+        <v>1.090243455583831</v>
       </c>
       <c r="G25">
-        <v>1.06304021868759</v>
+        <v>1.015906510303495</v>
       </c>
       <c r="H25">
-        <v>0.01682021031798264</v>
+        <v>0.0164226559951659</v>
       </c>
       <c r="I25">
-        <v>0.004970637000725198</v>
+        <v>0.003203126277778523</v>
       </c>
       <c r="J25">
-        <v>0.631781133947058</v>
+        <v>0.6479519520501356</v>
       </c>
       <c r="K25">
-        <v>0.2866402279924856</v>
+        <v>0.2466480423230211</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1186655605804443</v>
       </c>
       <c r="M25">
-        <v>3.796127625353336</v>
+        <v>0.07012767534848408</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.844017208774119</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
